--- a/EmployeeManagement/TestData/orange_data.xlsx
+++ b/EmployeeManagement/TestData/orange_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkarj\Desktop\C# Project\AutomationFramework\EmployeeManagement\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836023C8-8513-401B-B8F1-2723B112727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79202061-6E6E-4497-9EC5-B293BFC1D8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="AddValidEmployeeTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -67,13 +68,61 @@
   </si>
   <si>
     <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation </t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>wick</t>
+  </si>
+  <si>
+    <t>john wick</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>goodman</t>
+  </si>
+  <si>
+    <t>saul goodman</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>peter good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +134,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,9 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +462,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -479,4 +543,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE633B3-46BD-4F9D-9495-E15C92E04B41}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>